--- a/src/main/resources/importIntegralExample.xlsx
+++ b/src/main/resources/importIntegralExample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <rPr>
@@ -167,6 +167,10 @@
       </rPr>
       <t>为必填）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生日期（不填默认当前时间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,15 +248,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -562,7 +569,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -573,40 +580,44 @@
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="27.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/importIntegralExample.xlsx
+++ b/src/main/resources/importIntegralExample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <r>
       <rPr>
@@ -171,6 +171,31 @@
   </si>
   <si>
     <t>产生日期（不填默认当前时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变更场景</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,10 +281,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -566,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,27 +602,28 @@
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="18.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -611,18 +637,21 @@
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
